--- a/banco/tb_armazenamento_ar_2.xlsx
+++ b/banco/tb_armazenamento_ar_2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_8_2\htdocs\cartadigitalizacao\banco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp_811_10-2022\htdocs\cartadigitallizacao\banco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="305"/>
   </bookViews>
   <sheets>
     <sheet name="DEVOLUCAO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8982" uniqueCount="1743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8985" uniqueCount="1746">
   <si>
     <t>numero_caixa</t>
   </si>
@@ -5256,6 +5256,15 @@
   </si>
   <si>
     <t>data_carta_gerada</t>
+  </si>
+  <si>
+    <t>quebra_sequencia</t>
+  </si>
+  <si>
+    <t>corrigido</t>
+  </si>
+  <si>
+    <t>retida</t>
   </si>
 </sst>
 </file>
@@ -5307,7 +5316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5322,6 +5331,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5607,10 +5619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R1495"/>
+  <dimension ref="A1:U1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5634,7 +5646,7 @@
     <col min="18" max="18" width="15.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5689,8 +5701,17 @@
       <c r="R1" s="4" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="6" t="s">
+        <v>1743</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>1744</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45453</v>
       </c>
@@ -5737,7 +5758,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>45301</v>
       </c>
@@ -5784,7 +5805,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>45331</v>
       </c>
@@ -5831,7 +5852,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>49075</v>
       </c>
@@ -5878,7 +5899,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>49768</v>
       </c>
@@ -5925,7 +5946,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>45967</v>
       </c>
@@ -5972,7 +5993,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>45674</v>
       </c>
@@ -6019,7 +6040,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>45390</v>
       </c>
@@ -6066,7 +6087,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>45665</v>
       </c>
@@ -6113,7 +6134,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>45697</v>
       </c>
@@ -6160,7 +6181,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>45708</v>
       </c>
@@ -6207,7 +6228,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45716</v>
       </c>
@@ -6254,7 +6275,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>45869</v>
       </c>
@@ -6301,7 +6322,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>45959</v>
       </c>
@@ -6348,7 +6369,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>46045</v>
       </c>
